--- a/question.xlsx
+++ b/question.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13320" windowHeight="7950"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>海康威视的核心技术是什么</t>
+  </si>
+  <si>
+    <t>东方财富目前股价如何</t>
+  </si>
+  <si>
+    <t>概括一下超长期特别国债发行的意义是什么</t>
+  </si>
+  <si>
+    <t>游戏市场有什么新闻</t>
+  </si>
+  <si>
+    <t>今日行情如何</t>
+  </si>
+  <si>
+    <t>贵州茅台未来盈利预测如何？</t>
+  </si>
   <si>
     <t>推荐几个股票</t>
   </si>
@@ -37,10 +55,7 @@
     <t>比亚迪</t>
   </si>
   <si>
-    <t>东方财富</t>
-  </si>
-  <si>
-    <t>英伟达</t>
+    <t>分析一下中信海直的财务状况</t>
   </si>
 </sst>
 </file>
@@ -656,9 +671,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -971,13 +989,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="47.875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -997,6 +1018,31 @@
     <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
